--- a/General_Results_and_Plotting/AMF_Mid_PercentAllocation_Updated620.xlsx
+++ b/General_Results_and_Plotting/AMF_Mid_PercentAllocation_Updated620.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Desktop\FBA Paper Revisions\Figure Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Downloads\Maize-Rhizobia-AMF_FBA-main\General_Results_and_Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13867981-B857-48A5-A7EA-5E6026782EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDF3052-C875-4A87-97DD-A7E65F7C8017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="-2610" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:V1048576"/>
+      <selection activeCell="M1" sqref="M1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,34 +396,34 @@
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" s="1">
-        <v>4.29</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="B2">
+        <v>3.96</v>
+      </c>
+      <c r="C2">
+        <v>4.74</v>
+      </c>
+      <c r="D2">
+        <v>4.72</v>
+      </c>
+      <c r="E2">
+        <v>4.72</v>
+      </c>
+      <c r="F2">
+        <v>4.72</v>
+      </c>
+      <c r="G2">
+        <v>4.72</v>
+      </c>
+      <c r="H2">
+        <v>4.62</v>
+      </c>
+      <c r="I2">
+        <v>1.44</v>
+      </c>
+      <c r="J2">
         <v>0.1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>0</v>
       </c>
       <c r="V2" s="1"/>
@@ -434,34 +434,34 @@
       <c r="A3">
         <v>90</v>
       </c>
-      <c r="B3" s="1">
-        <v>4.28</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="B3">
+        <v>3.97</v>
+      </c>
+      <c r="C3">
+        <v>4.74</v>
+      </c>
+      <c r="D3">
+        <v>4.72</v>
+      </c>
+      <c r="E3">
+        <v>4.72</v>
+      </c>
+      <c r="F3">
+        <v>4.72</v>
+      </c>
+      <c r="G3">
+        <v>4.72</v>
+      </c>
+      <c r="H3">
+        <v>4.62</v>
+      </c>
+      <c r="I3">
+        <v>1.44</v>
+      </c>
+      <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>0.01</v>
       </c>
       <c r="V3" s="1"/>
@@ -470,34 +470,34 @@
       <c r="A4">
         <v>80</v>
       </c>
-      <c r="B4" s="1">
-        <v>4.28</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="B4">
+        <v>3.96</v>
+      </c>
+      <c r="C4">
+        <v>4.74</v>
+      </c>
+      <c r="D4">
+        <v>4.72</v>
+      </c>
+      <c r="E4">
+        <v>4.72</v>
+      </c>
+      <c r="F4">
+        <v>4.72</v>
+      </c>
+      <c r="G4">
+        <v>4.72</v>
+      </c>
+      <c r="H4">
+        <v>4.62</v>
+      </c>
+      <c r="I4">
+        <v>1.44</v>
+      </c>
+      <c r="J4">
+        <v>0.08</v>
+      </c>
+      <c r="K4">
         <v>0.02</v>
       </c>
       <c r="V4" s="1"/>
@@ -506,34 +506,34 @@
       <c r="A5">
         <v>70</v>
       </c>
-      <c r="B5" s="1">
-        <v>4.29</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.37</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="B5">
+        <v>3.96</v>
+      </c>
+      <c r="C5">
+        <v>4.74</v>
+      </c>
+      <c r="D5">
+        <v>4.72</v>
+      </c>
+      <c r="E5">
+        <v>4.72</v>
+      </c>
+      <c r="F5">
+        <v>4.72</v>
+      </c>
+      <c r="G5">
+        <v>4.72</v>
+      </c>
+      <c r="H5">
+        <v>4.62</v>
+      </c>
+      <c r="I5">
+        <v>1.46</v>
+      </c>
+      <c r="J5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>0.03</v>
       </c>
       <c r="V5" s="1"/>
@@ -542,34 +542,34 @@
       <c r="A6">
         <v>60</v>
       </c>
-      <c r="B6" s="1">
-        <v>4.29</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4.18</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="B6">
+        <v>3.96</v>
+      </c>
+      <c r="C6">
+        <v>4.74</v>
+      </c>
+      <c r="D6">
+        <v>4.72</v>
+      </c>
+      <c r="E6">
+        <v>4.72</v>
+      </c>
+      <c r="F6">
+        <v>4.72</v>
+      </c>
+      <c r="G6">
+        <v>4.72</v>
+      </c>
+      <c r="H6">
+        <v>3.98</v>
+      </c>
+      <c r="I6">
+        <v>1.47</v>
+      </c>
+      <c r="J6">
         <v>0.06</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>0.04</v>
       </c>
       <c r="V6" s="1"/>
@@ -578,34 +578,34 @@
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="1">
-        <v>4.29</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.07</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.51</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.41</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="B7">
+        <v>3.96</v>
+      </c>
+      <c r="C7">
+        <v>4.74</v>
+      </c>
+      <c r="D7">
+        <v>4.72</v>
+      </c>
+      <c r="E7">
+        <v>4.72</v>
+      </c>
+      <c r="F7">
+        <v>4.72</v>
+      </c>
+      <c r="G7">
+        <v>3.96</v>
+      </c>
+      <c r="H7">
+        <v>3.34</v>
+      </c>
+      <c r="I7">
+        <v>1.49</v>
+      </c>
+      <c r="J7">
         <v>0.05</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>0.05</v>
       </c>
       <c r="V7" s="1"/>
@@ -614,34 +614,34 @@
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" s="1">
-        <v>4.28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.91</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3.28</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2.83</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="B8">
+        <v>3.96</v>
+      </c>
+      <c r="C8">
+        <v>4.74</v>
+      </c>
+      <c r="D8">
+        <v>4.72</v>
+      </c>
+      <c r="E8">
+        <v>4.72</v>
+      </c>
+      <c r="F8">
+        <v>3.81</v>
+      </c>
+      <c r="G8">
+        <v>3.2</v>
+      </c>
+      <c r="H8">
+        <v>2.69</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="J8">
         <v>0.06</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>0.06</v>
       </c>
       <c r="V8" s="1"/>
@@ -650,35 +650,35 @@
       <c r="A9">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
-        <v>4.29</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.96</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.48</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2.14</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.94</v>
+      <c r="B9">
+        <v>3.96</v>
+      </c>
+      <c r="C9">
+        <v>4.74</v>
+      </c>
+      <c r="D9">
+        <v>4.72</v>
+      </c>
+      <c r="E9">
+        <v>3.58</v>
+      </c>
+      <c r="F9">
+        <v>2.89</v>
+      </c>
+      <c r="G9">
+        <v>2.42</v>
+      </c>
+      <c r="H9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I9">
+        <v>1.85</v>
+      </c>
+      <c r="J9">
+        <v>1.85</v>
+      </c>
+      <c r="K9">
+        <v>1.85</v>
       </c>
       <c r="V9" s="1"/>
     </row>
@@ -686,35 +686,35 @@
       <c r="A10">
         <v>20</v>
       </c>
-      <c r="B10" s="1">
-        <v>4.28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.28</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.48</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.99</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="B10">
+        <v>3.96</v>
+      </c>
+      <c r="C10">
+        <v>4.74</v>
+      </c>
+      <c r="D10">
+        <v>3.24</v>
+      </c>
+      <c r="E10">
+        <v>2.42</v>
+      </c>
+      <c r="F10">
         <v>1.94</v>
       </c>
-      <c r="H10" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.94</v>
+      <c r="G10">
+        <v>1.89</v>
+      </c>
+      <c r="H10">
+        <v>1.89</v>
+      </c>
+      <c r="I10">
+        <v>1.89</v>
+      </c>
+      <c r="J10">
+        <v>1.89</v>
+      </c>
+      <c r="K10">
+        <v>1.89</v>
       </c>
       <c r="V10" s="1"/>
     </row>
@@ -722,67 +722,158 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4.29</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.48</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1.94</v>
+      <c r="B11">
+        <v>3.96</v>
+      </c>
+      <c r="C11">
+        <v>2.41</v>
+      </c>
+      <c r="D11">
+        <v>1.92</v>
+      </c>
+      <c r="E11">
+        <v>1.92</v>
+      </c>
+      <c r="F11">
+        <v>1.92</v>
+      </c>
+      <c r="G11">
+        <v>1.92</v>
+      </c>
+      <c r="H11">
+        <v>1.92</v>
+      </c>
+      <c r="I11">
+        <v>1.92</v>
+      </c>
+      <c r="J11">
+        <v>1.92</v>
+      </c>
+      <c r="K11">
+        <v>1.92</v>
       </c>
       <c r="V11" s="1"/>
     </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+    </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="V14" s="1"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="V15" s="1"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="22:22" x14ac:dyDescent="0.35">
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="22:22" x14ac:dyDescent="0.35">
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="22:22" x14ac:dyDescent="0.35">
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="22:22" x14ac:dyDescent="0.35">
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="22:22" x14ac:dyDescent="0.35">
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="22:22" x14ac:dyDescent="0.35">
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="22:22" x14ac:dyDescent="0.35">
-      <c r="V23" s="1"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+    </row>
+    <row r="17" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+    </row>
+    <row r="18" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+    </row>
+    <row r="19" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+    </row>
+    <row r="20" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+    </row>
+    <row r="21" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+    </row>
+    <row r="22" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+    </row>
+    <row r="23" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
